--- a/data/students-skewed.xlsx
+++ b/data/students-skewed.xlsx
@@ -34,7 +34,7 @@
     <t>black</t>
   </si>
   <si>
-    <t>white</t>
+    <t xml:space="preserve"> white</t>
   </si>
   <si>
     <t>John</t>
